--- a/backend/static/Achats.xlsx
+++ b/backend/static/Achats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\backend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60CC5D8-769D-4625-9963-3CD555CCA33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C30A23-A4CC-4000-A391-30EDF4FD3A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Demandeur</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Consommable</t>
   </si>
 </sst>
 </file>
@@ -504,12 +510,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U168"/>
+  <dimension ref="A1:W168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +543,7 @@
     <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,50 +607,56 @@
       <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="P16"/>
     </row>
     <row r="17" spans="16:16" x14ac:dyDescent="0.25">
